--- a/data/trans_media/Q17H_A-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q17H_A-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,26</t>
+          <t>0,54; 1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,03</t>
+          <t>0,29; 1,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,52</t>
+          <t>0,17; 0,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,22</t>
+          <t>0,69; 1,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,83</t>
+          <t>0,4; 0,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,95</t>
+          <t>0,65; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,81</t>
+          <t>0,51; 0,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,52</t>
+          <t>0,28; 0,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,5</t>
+          <t>0,26; 0,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,71</t>
+          <t>0,51; 0,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,61</t>
+          <t>0,41; 0,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,98</t>
+          <t>0,68; 0,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,78</t>
+          <t>0,55; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,41</t>
+          <t>0,27; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,57</t>
+          <t>0,43; 0,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,13</t>
+          <t>0,83; 1,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,97</t>
+          <t>0,69; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,77</t>
+          <t>0,49; 0,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,81</t>
+          <t>0,32; 0,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,89</t>
+          <t>0,7; 0,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,79</t>
+          <t>0,54; 0,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,15</t>
+          <t>0,8; 1,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,59</t>
+          <t>0,45; 0,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,44</t>
+          <t>0,27; 0,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,84</t>
+          <t>0,64; 0,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,68</t>
+          <t>0,49; 0,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,8</t>
+          <t>0,66; 0,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,53</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,6</t>
+          <t>0,5; 0,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
